--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16275" windowHeight="9270"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>User story</t>
   </si>
@@ -34,13 +34,169 @@
   </si>
   <si>
     <t>Depends on</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to submit a task/project with description so I can find candidates (add contact info)</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>As a  partner I should be able to negotiating with admins (description)</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to view the status (lifecycle) of my task so i can track my task (lifecycle system)</t>
+  </si>
+  <si>
+    <t>As a partner i should be able to send a task orientation invitation so i can invite applicants</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to edit attributes to projects i have already posted so i can update the description and skills needed</t>
+  </si>
+  <si>
+    <t>As a candidate, I should be able to create a profile</t>
+  </si>
+  <si>
+    <t>As a candidate, I should be able to login on the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a candidate I should be able to view, search and apply (if qualified) to tasks/projects so i can obtain a job </t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>As a candidate I should be accepted (or rejected) for a task/project and receive a task orientation</t>
+  </si>
+  <si>
+    <t>Notification system</t>
+  </si>
+  <si>
+    <t>As a  candidate I should be able to update my progress on a task so it’s lifecycle is visible to everyone</t>
+  </si>
+  <si>
+    <t>As a candidate I should be able to view recommendations of tasks that match my skill set so i can get better results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an  admin I should be able to check description and finalize posting after negotiating with partner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation from the admin side </t>
+  </si>
+  <si>
+    <t>As an admin I should be able to send a notification to anyone who registers so they can come and sign a contract</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to add signature time to candidate profile</t>
+  </si>
+  <si>
+    <t>Live Events</t>
+  </si>
+  <si>
+    <t>As an admin i should be able to confirm a live event so that i can let the partner host the event and notify</t>
+  </si>
+  <si>
+    <t>As a member I should be able to view and book applicable events so that i can attend events</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Booking system</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>As a member i should be able to view the location, description, registration price, remaining places, speakers and topics , covered and know if applying is applicable so that i can  attend events</t>
+  </si>
+  <si>
+    <t>validation system</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>As a member a record of the events I attended should be constantly updated so that i can track which events I’ve been to.</t>
+  </si>
+  <si>
+    <t>As a member I should be prompted to fill a feedback form after an event i attended is over so that i can provide feedback for the host (Form site)</t>
+  </si>
+  <si>
+    <t>As a member i should be  recommended events based on my interests and past events and locations so that i can attend events</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to assign which candidates get accepted to their applications so that i can facilitate the lifecycleof the task</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to request to organize an event with location, description, registration price, remaining places, speakers and topics covered so that i can host an event</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to request to organize an event with location, description, registration price, remaining places,speakers and topics covered so that i can host an event</t>
+  </si>
+  <si>
+    <t>Hania</t>
+  </si>
+  <si>
+    <t>Lobna</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Nagy</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Gomana</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Hagar</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Rawi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +208,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,11 +247,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,7 +345,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,7 +379,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,24 +554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,64 +591,405 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>2.1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2.4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3.1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3.2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3.3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3.4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>3.5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3.6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>3.7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -499,24 +1006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
